--- a/medicine/Pharmacie/Réactif_de_Dragendorff/Réactif_de_Dragendorff.xlsx
+++ b/medicine/Pharmacie/Réactif_de_Dragendorff/Réactif_de_Dragendorff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9actif_de_Dragendorff</t>
+          <t>Réactif_de_Dragendorff</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réactif de Dragendorff est un réactif utilisé pour mettre en évidence les alcaloïdes notamment en pharmacognosie.
 Il contient de l'iodobismuthide de potassium ou de sodium et on obtient un précipité d'une couleur rouge-orangé en présence d'alcaloïdes.
